--- a/biology/Botanique/Kamo_Mototeru/Kamo_Mototeru.xlsx
+++ b/biology/Botanique/Kamo_Mototeru/Kamo_Mototeru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kamo Mototeru (加茂 元照?) est un horticulteur japonais né en 1930, créateur en février 1988 de la variété de bégonia kimjongilia, dédiée au dirigeant nord-coréen Kim Jong-il.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans une lettre qu'il a adressée à ce dernier datée du 13 février 1988, Kamo Mototeru écrit :
 « Avec respect et considération, j'ose écrire à votre Excellence Monsieur Kim Jong-il. Désireux de vous féliciter pour vos 46 ans et aspirant à l'amitié entre le Japon et la Corée, je veux vous offrir des spécimens d'une variété de bégonia tubéreux que j'ai obtenue par sélection.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« La Corée du XXe siècle en 100 points », Éditions en langues étrangères, Pyongyang, octobre 2002, p. 135.</t>
         </is>
